--- a/info/План и журнал обучения.xlsx
+++ b/info/План и журнал обучения.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6877F7-F797-428F-ACFF-B23D0B41E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB80A1-CE18-4838-B688-62A887A03D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Журнал обучения" sheetId="3" r:id="rId1"/>
@@ -93,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="139">
   <si>
     <t>Ресурс</t>
   </si>
@@ -494,7 +494,22 @@
     <t>Решение задачи</t>
   </si>
   <si>
-    <t>ывыв</t>
+    <t>Свойства блоков, оформление блоков</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Настройка окружения для работы с SCSS, БЭМ. Практика работы с файлами SCSS в VS Code. Импортирование нескольких файлов в один</t>
+  </si>
+  <si>
+    <t>Отдельно проработать синтаксис SCSS</t>
+  </si>
+  <si>
+    <t>SAS, SCSS</t>
+  </si>
+  <si>
+    <t>#18b5a4</t>
   </si>
 </sst>
 </file>
@@ -502,9 +517,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,8 +591,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF6C6C6C"/>
+      <name val="SF UI Display"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +620,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor theme="9" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF18B5A4"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -685,29 +717,60 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
     <dxf>
       <font>
         <b val="0"/>
@@ -729,29 +792,34 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="h:mm;@"/>
+      <numFmt numFmtId="164" formatCode="h:mm;@"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -771,6 +839,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF18B5A4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,8 +856,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D4F9017-35BA-4732-84F7-28F818D1A74C}" name="Таблица1" displayName="Таблица1" ref="A1:G2" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:G2" xr:uid="{4D4F9017-35BA-4732-84F7-28F818D1A74C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D4F9017-35BA-4732-84F7-28F818D1A74C}" name="Таблица1" displayName="Таблица1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:G3" xr:uid="{4D4F9017-35BA-4732-84F7-28F818D1A74C}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{0E800E96-C7B9-4C18-ACC8-A0318785F2E4}" name="Дата" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8F7AD5C0-6561-49E1-93FC-A5FB7CEE0CF2}" name="Тип обучения" dataDxfId="6"/>
@@ -1020,36 +1093,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430B07E0-2216-4C7B-98E0-498DC369B8EA}">
   <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="25" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="25" customWidth="1"/>
-    <col min="4" max="5" width="50.7109375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="24" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
     <col min="20" max="20" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="29.25" customHeight="1">
       <c r="A1" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>124</v>
       </c>
       <c r="F1" s="22" t="s">
@@ -1062,51 +1136,70 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+    <row r="2" spans="1:20">
+      <c r="A2" s="25">
         <v>44853</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>133</v>
+      </c>
       <c r="E2" s="28"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="25"/>
+      <c r="G2" s="30"/>
       <c r="T2" s="19" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="30">
+      <c r="A3" s="31">
+        <v>44853</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
       <c r="T3" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20">
       <c r="T4" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20">
       <c r="T5" s="19" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20">
       <c r="T6" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="T7" s="19" t="s">
-        <v>133</v>
-      </c>
+    <row r="7" spans="1:20">
+      <c r="T7" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2" xr:uid="{02F303B2-2078-418F-AB9A-7907D49476A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{02F303B2-2078-418F-AB9A-7907D49476A8}">
       <formula1>ТИП</formula1>
     </dataValidation>
   </dataValidations>
@@ -1125,20 +1218,20 @@
   <sheetPr codeName="Лист1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B82"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="39.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="78.5703125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -1146,19 +1239,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1166,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -1174,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1283,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1198,13 +1291,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" outlineLevel="1">
       <c r="A9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="9"/>
     </row>
-    <row r="10" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" outlineLevel="1">
       <c r="A10" s="8" t="s">
         <v>48</v>
       </c>
@@ -1212,7 +1305,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" outlineLevel="1">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -1220,7 +1313,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" outlineLevel="1">
       <c r="A12" s="8" t="s">
         <v>52</v>
       </c>
@@ -1228,7 +1321,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" outlineLevel="1">
       <c r="A13" s="8" t="s">
         <v>54</v>
       </c>
@@ -1236,7 +1329,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" outlineLevel="1">
       <c r="A14" s="8" t="s">
         <v>56</v>
       </c>
@@ -1244,7 +1337,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" outlineLevel="1">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -1252,7 +1345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" outlineLevel="1">
       <c r="A16" s="8" t="s">
         <v>60</v>
       </c>
@@ -1260,105 +1353,276 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" outlineLevel="1">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" outlineLevel="1">
       <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="10"/>
-    </row>
-    <row r="19" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+    </row>
+    <row r="19" spans="1:17" outlineLevel="1">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+    </row>
+    <row r="21" spans="1:17" ht="30" outlineLevel="1">
       <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="8"/>
-    </row>
-    <row r="22" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+    </row>
+    <row r="22" spans="1:17" outlineLevel="1">
       <c r="A22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="8"/>
-    </row>
-    <row r="23" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+    </row>
+    <row r="23" spans="1:17" outlineLevel="1">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="8"/>
-    </row>
-    <row r="24" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+    </row>
+    <row r="24" spans="1:17" ht="30" outlineLevel="1">
       <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="8"/>
-    </row>
-    <row r="25" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+    </row>
+    <row r="25" spans="1:17" outlineLevel="1">
       <c r="A25" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+    </row>
+    <row r="26" spans="1:17" outlineLevel="1">
       <c r="A26" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="18"/>
-    </row>
-    <row r="27" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+    </row>
+    <row r="27" spans="1:17" outlineLevel="1">
+      <c r="A27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="B27" s="36"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+    </row>
+    <row r="28" spans="1:17" ht="30" outlineLevel="1">
+      <c r="A28" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39"/>
+      <c r="Q28" s="39"/>
+    </row>
+    <row r="29" spans="1:17" ht="30" outlineLevel="1">
       <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+    </row>
+    <row r="30" spans="1:17" ht="30" outlineLevel="1">
+      <c r="A30" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="D30" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" outlineLevel="1">
+      <c r="A31" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" outlineLevel="1">
       <c r="A32" s="13" t="s">
         <v>79</v>
       </c>
@@ -1366,7 +1630,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" outlineLevel="1">
       <c r="A33" s="13" t="s">
         <v>81</v>
       </c>
@@ -1374,7 +1638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:2" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" outlineLevel="1">
       <c r="A34" s="13" t="s">
         <v>83</v>
       </c>
@@ -1382,7 +1646,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="30" outlineLevel="1">
       <c r="A35" s="14" t="s">
         <v>85</v>
       </c>
@@ -1390,7 +1654,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="30" outlineLevel="1">
       <c r="A36" s="13" t="s">
         <v>87</v>
       </c>
@@ -1398,13 +1662,13 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="16"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
@@ -1412,7 +1676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="11" t="s">
         <v>17</v>
       </c>
@@ -1420,7 +1684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="30" collapsed="1">
       <c r="A40" s="11" t="s">
         <v>19</v>
       </c>
@@ -1428,7 +1692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A41" s="14" t="s">
         <v>89</v>
       </c>
@@ -1436,7 +1700,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A42" s="14" t="s">
         <v>91</v>
       </c>
@@ -1444,7 +1708,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A43" s="14" t="s">
         <v>93</v>
       </c>
@@ -1452,7 +1716,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="30">
       <c r="A44" s="11" t="s">
         <v>20</v>
       </c>
@@ -1460,7 +1724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="30">
       <c r="A45" s="11" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="30" collapsed="1">
       <c r="A46" s="11" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="30" hidden="1" outlineLevel="1">
       <c r="A47" s="14" t="s">
         <v>95</v>
       </c>
@@ -1484,7 +1748,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A48" s="14" t="s">
         <v>97</v>
       </c>
@@ -1492,7 +1756,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" collapsed="1">
       <c r="A49" s="11" t="s">
         <v>26</v>
       </c>
@@ -1500,19 +1764,19 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A50" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B50" s="12"/>
     </row>
-    <row r="51" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="30" hidden="1" outlineLevel="1">
       <c r="A51" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B51" s="12"/>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" s="11" t="s">
         <v>28</v>
       </c>
@@ -1520,7 +1784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" collapsed="1">
       <c r="A53" s="11" t="s">
         <v>30</v>
       </c>
@@ -1528,37 +1792,37 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A54" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A55" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B55" s="15"/>
     </row>
-    <row r="56" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A56" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B56" s="15"/>
     </row>
-    <row r="57" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A57" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B57" s="15"/>
     </row>
-    <row r="58" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A58" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="15"/>
     </row>
-    <row r="59" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A59" s="14" t="s">
         <v>106</v>
       </c>
@@ -1566,13 +1830,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A60" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B60" s="15"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="11" t="s">
         <v>32</v>
       </c>
@@ -1580,13 +1844,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" collapsed="1">
       <c r="A62" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B62" s="16"/>
     </row>
-    <row r="63" spans="1:2" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="30" hidden="1" outlineLevel="1">
       <c r="A63" s="14" t="s">
         <v>109</v>
       </c>
@@ -1594,115 +1858,115 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B64" s="16"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="11" t="s">
         <v>36</v>
       </c>
       <c r="B65" s="16"/>
     </row>
-    <row r="66" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" collapsed="1">
       <c r="A66" s="11" t="s">
         <v>37</v>
       </c>
       <c r="B66" s="16"/>
     </row>
-    <row r="67" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A67" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B67" s="15"/>
     </row>
-    <row r="68" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A68" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="15"/>
     </row>
-    <row r="69" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A69" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B69" s="15"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="B70" s="16"/>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="30">
       <c r="A71" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B71" s="16"/>
     </row>
-    <row r="72" spans="1:2" ht="30" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="30" collapsed="1">
       <c r="A72" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B72" s="16"/>
     </row>
-    <row r="73" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A73" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B73" s="15"/>
     </row>
-    <row r="74" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A74" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B74" s="15"/>
     </row>
-    <row r="75" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A75" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B75" s="15"/>
     </row>
-    <row r="76" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A76" s="14" t="s">
         <v>117</v>
       </c>
       <c r="B76" s="15"/>
     </row>
-    <row r="77" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A77" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B77" s="15"/>
     </row>
-    <row r="78" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" outlineLevel="1">
       <c r="A78" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B78" s="15"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="11" t="s">
         <v>41</v>
       </c>
       <c r="B79" s="16"/>
     </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="30">
       <c r="A80" s="11" t="s">
         <v>42</v>
       </c>
       <c r="B80" s="16"/>
     </row>
-    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="30">
       <c r="A81" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B81" s="16"/>
     </row>
-    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="30">
       <c r="A82" s="11" t="s">
         <v>44</v>
       </c>
@@ -1731,6 +1995,6 @@
     <hyperlink ref="B82" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
+  <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/info/План и журнал обучения.xlsx
+++ b/info/План и журнал обучения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FB80A1-CE18-4838-B688-62A887A03D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCEC4FB-693C-4275-83EE-47457C55909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="План frontend" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11" hidden="1">Таблица1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21" hidden="1">Таблица2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1" hidden="1">Таблица1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2" hidden="1">Таблица2[]</definedName>
     <definedName name="ТИП">Таблица2[Типы обучения]</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -75,7 +75,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -84,7 +84,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -663,7 +663,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -703,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1099,11 +1096,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="20" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="109.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" style="24" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="40.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="109.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="15" max="15" width="16.42578125" customWidth="1"/>
@@ -1111,90 +1108,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="18" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>44853</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-      <c r="T2" s="19" t="s">
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
+      <c r="T2" s="18" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="30">
-      <c r="A3" s="31">
+      <c r="A3" s="30">
         <v>44853</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
-      <c r="T3" s="19" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="T3" s="18" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="18" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:20">
-      <c r="T5" s="19" t="s">
+      <c r="T5" s="18" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
-      <c r="T7" s="19"/>
+      <c r="T7" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1221,7 +1218,7 @@
   <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1364,40 +1361,40 @@
         <v>63</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
     </row>
     <row r="19" spans="1:17" outlineLevel="1">
       <c r="A19" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="11" t="s">
@@ -1406,100 +1403,100 @@
       <c r="B20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="1:17" ht="30" outlineLevel="1">
       <c r="A21" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="8"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
     </row>
     <row r="22" spans="1:17" outlineLevel="1">
       <c r="A22" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="8"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="1:17" outlineLevel="1">
       <c r="A23" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="8"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="1:17" ht="30" outlineLevel="1">
       <c r="A24" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="8"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="1:17" outlineLevel="1">
       <c r="A25" s="8" t="s">
@@ -1508,117 +1505,117 @@
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
+      <c r="O25" s="38"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="1:17" outlineLevel="1">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
+      <c r="B26" s="10"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="1:17" outlineLevel="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
+      <c r="B27" s="35"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="38"/>
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="1:17" ht="30" outlineLevel="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
+      <c r="B28" s="35"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="30" outlineLevel="1">
       <c r="A29" s="13" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="13"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="39"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="39"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="1:17" ht="30" outlineLevel="1">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="39" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" outlineLevel="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>78</v>
       </c>
     </row>

--- a/info/План и журнал обучения.xlsx
+++ b/info/План и журнал обучения.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\prog\Academia-top-traning-rep\Academia-top-traning-rep\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCEC4FB-693C-4275-83EE-47457C55909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065DE557-3067-4A2F-B8CD-EE3131CE064F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="План frontend" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1" hidden="1">Таблица1[]</definedName>
-    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2" hidden="1">Таблица2[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11" hidden="1">Таблица1[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21" hidden="1">Таблица2[]</definedName>
     <definedName name="ТИП">Таблица2[Типы обучения]</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -75,7 +75,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -84,7 +84,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Таблица2">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица2"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Планразвитияfrontendразработчика.xlsxТаблица21"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1581,10 +1581,10 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="1:17" ht="30" outlineLevel="1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="35"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
@@ -1620,26 +1620,26 @@
       </c>
     </row>
     <row r="32" spans="1:17" outlineLevel="1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" outlineLevel="1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2" outlineLevel="1">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="35" t="s">
         <v>84</v>
       </c>
     </row>
